--- a/results/R_gene_lists/d2_FRC_ova_markers.xlsx
+++ b/results/R_gene_lists/d2_FRC_ova_markers.xlsx
@@ -6,8 +6,8 @@
     <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="neg" r:id="rId3" sheetId="1"/>
-    <sheet name="pos" r:id="rId4" sheetId="2"/>
+    <sheet name="low" r:id="rId3" sheetId="1"/>
+    <sheet name="high" r:id="rId4" sheetId="2"/>
   </sheets>
 </workbook>
 </file>
@@ -90,7 +90,7 @@
     <t>18</t>
   </si>
   <si>
-    <t>neg</t>
+    <t>low</t>
   </si>
   <si>
     <t>Efhd1</t>
@@ -348,7 +348,7 @@
     <t>85</t>
   </si>
   <si>
-    <t>pos</t>
+    <t>high</t>
   </si>
   <si>
     <t>Il15ra</t>
